--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 17. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 17. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J711"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="42" customWidth="1" min="7" max="7"/>
     <col width="134" customWidth="1" min="8" max="8"/>
     <col width="105" customWidth="1" min="9" max="9"/>
-    <col width="47" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>MUSTAFA KEMAL PAŞA MAHALLESİ 2730 SK. NO: 11A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. NO:230/M MODEKO İŞ MERKEZİ KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>AKDENİZ MAHALLESİ FEVZİPAŞA BULVARI AZİMHAN İŞ MERKEZİ BLOK NO: 17 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>BOZYAKA MAHALLESİ 3156 SOK. NO:26/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO:13 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO:128 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>MENDERES MAH. MENDERES CAD. NO: 10 İÇ KAPI NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>GÖKSU MAH. 679 SK. NO: 69A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>KÜLTÜR MAHALLESİ PLEVNE BULVARI AYDA BLOK NO: 23A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 391 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>YENİGÜN MAHALLESİ FEVZİPAŞA BULVARI NO:148/1A NECIPOGLU ISHANI BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>İNCİRALTI MAH. İNCİRALTI CAD. NO: 40/1 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>KONAK MAHALLESİ 872 SK. NO:93 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>KAHRAMANLAR MAH. MÜRSELPAŞA BUL. NO: 161 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>KAHRAMANLAR MAHALLESİ 1397 SOKAK NO:3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>ONUR MAHALLESİ ATA CADDESI NO:58/E BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>KAHRAMANLAR MAHALLESİ 1397 SOKAK NO:5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>GAZİ MAHALLESİ ÖNDER CAD. ETHEM B APT. NO: 97 /2A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>ATAŞEHİR MAHALLESİ 8001 SOKAK NO:44 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ALAÇATI MAH. KEMALPAŞA CAD. BUFE BLOK NO: 61A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>TAN MAHALLESİ KESTELLİ CADDESİ NO: 54 A-/A- KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>ETİLER MAHALLESİ MÜRSELPAŞA BLV. NO: 4/301 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ERZENE MAHALLESİ 83 SOK. NO:11/A TURGAY BLOK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>İSMET KAPTAN MAH. 1364 SK. SEMA İŞ MERKEZİ BLOK NO: 14 İÇ KAPI NO: 303 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. NO: 16C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>ALAÇATI MAHALLESİ 18012 SOKAK NO:3 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİ HAVAALANI CADDESİ NO:40/109 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z47 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>KIZILAY MAH. 484/1 SK. NO: 35A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>ALAÇATI MAHALLESİ 11005 SOKAK NO:13/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>DOĞANLAR MAHALLESİ ANKARA CADDESI NO:192/Z20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>BOSTANLI MAH. BESTEKAR YUSUF NALKESEN SK. KARDEŞ NO: 28A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ONUR MAH. ATA CAD. SÜSLER NO: 110A İÇ KAPI NO: Z BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO:32/Z04 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. NO:85 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SOKAK NOVADA BLOK NO: 12D İÇ KAPI NO: Z011 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/107 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>AKDENİZ MAH. FEVZİPAŞA BULVARI NO:14/ D KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO: 101/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>ERGENE MAH. MUSTAFA KEMAL CAD NO:16/C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>ATİF BEY MAH. 5.SOKAK NO:32/4 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CAD. NO: 40/Z18 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/Z45 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI NO:207/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ AGORA ALV.MERKEZİ (YENİ) Sit. NO: 32/Z16 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3/146 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/139 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1 İÇ KAPI NO: 133 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. A BLOK NO: 84 İÇ KAPI NO: Z06 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CADDESİ NO: 40/Z29 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>AKDENİZ MAHALLESİ FEVZİPAŞA BULVARI AZİMHAN İŞ MERKEZİ BLOK NO: 17G KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHAR DUDAYEV BULVARI KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:15 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:13 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>DOĞANLAR MAHALLESİ ANKARA ASFALTI NO:192/P-18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>DONANMACI MAHALLESİ HÜSEYİN ÇAĞLAYAN SK. ALİM BLOK NO: 20A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>KONAK MAH. FEVZİPAŞA BUL. KARAOSMANOĞLU HANI NO: 30 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>MANSUROĞLU MAH. HAŞİM İŞCAN CAD. ÖZKANLAR 5 NO: 9B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CAD. NO: 53 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>TUNA MAHALLESİ SALAH BİRSEL SK. BERRAK BLOK NO: 32B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>TUNA MAH. SALAH BİRSEL SK. NO: 30/1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>TOKOĞLU MAHALLESİ KEMALPAŞA CAD. NO:61/A ALAÇATI ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 26 İÇ KAPI NO: 119 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVAR NO:24 /319 _ ADRES NO: 1370890525 OFİS VE İŞYERİ KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOK. FORUM Sit. A4 BLOK Apt. NO: 32 Z BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>SEVGİ MAHALLESİ 901 SK. NO: 8 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 249 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. AGORA Sit. AGORA Apt. NO: 30/109 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>GAZİ MAHALLESİ AKÇAY CAD. NO: 164/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>KONAK MAHALLESİ 871 SOKAK NO: 52 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>BİRLİK MAHALLESİ 4208 SOKAK NO: 34A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>ALAÇATI MAHALLESİ 12015 SOKAK NO:5 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>KONAK MAHALLESİ 892 SK. NO: 25/MÜSTAKİL KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>ÇAMTEPE MAH. MİTHATPAŞA CAD. KARDEŞLER NO: 263A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>KÜLTÜR MAHALLESİ PLEVNE BULVARI NO:13/B HUZUR BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>SIĞACIK MAH. AKKUM CAD. 24.BUTİK DÜKKAN GRUBU NO: 4-10D SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>KONAK MAH. 894 SK. NO: 6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>AKDENİZ MAH. MİMAR KEMALETTİN CAD. EGE GOKMEN NO: 11A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. NO:74 B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO:2 DK1-5C ÇEŞME MARİNA ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3/203 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>KAZIM DİRİK MAHALLESİ 367/6 SOKAK KIDSMALL A.V.M. MAĞAZA NO 3/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>KÜLTÜR MAHALLESİ CUMHURİYET BULVARI NO:171/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ MODA SK. NO:3/A MAĞAZA NO: Z-036 SELWAY OUTLET PARK AVM BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. A APT. NO: 84/101 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO: 2-5-E ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>ALSANCAK MAHALLESİ CUMHURİYET BLV. PİRAY APT. NO: 231/2 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>MUSALLA MAH. İKİÇEŞMELİK KÜME EVLERİ NO: 103 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>MERİÇ MAHALLESİ 5746/7 SOKAK NO: 9 İÇ KAPI NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ALAÇATI MAHALLESİ 11005 SOKAK NO: 8 A/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>MERİÇ MAH. KEMALPAŞA CAD. NO: 10 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>KONAK MAHALLESİ 872 SOKAK NO:44 KESTANE PAZARI CAMİSİ Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>REFET BELE MAH. 9125 SK. NO: 17A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO: 19/A ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>KEMALPAŞA MAHALLESİ ÇANAKKALE CADDESI NO:39/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEVKET ÖZÇELİK SOKAK NO:23/B/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEVKET ÖZÇELİK SK. NO: 2D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:28/E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:28/E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 126 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 127 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z11 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEVKET ÖZÇELİK SK. NO:6/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>İSMET KAPTAN MAH. HÜRRİYET BUL. MUSULLUGİL IŞ MERKEZI NO: 5/1 İÇ KAPI NO: 81 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>KAHRAMANDERE MAH. 723 SK. NO: 2 İÇ KAPI NO: 2 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>YİĞİTLER MAH. MENDERES CAD. NO: 226C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI ULAŞAN BLOK NO: 171B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>TURABİYE MAH. NECAT HEPKON CAD. NO: 49A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 161 SK. NO:18 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>ILICA MAHALLESİ 5065 SOKAK NO: 2B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>KONAK MAHALLESİ 847 SOKAK NO:27 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>ALAÇATI MAH. ALAÇATI CUMHURİYET CAD. NO: 18B İÇ KAPI NO: B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>ALAÇATI MAHALLESİ 11005 SOKAK NO:49 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>GAZİ OSMAN PAŞA MAH. KAMİL TUNCA CAD. NO: 6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>ZAFER MAHALLESİ AKÇAY CAD. NO: 142 C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>IŞIKLAR MAHALLESİ AYDINLAR CAD. NO: 92/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM BLOK NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 255 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101/0 OPTİMUM ALIŞVERİŞ MERKEZİ Apt. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO: 26 İÇ KAPI NO: 113 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A BLOK NO: 84 İÇ KAPI NO: 105 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>GÜNEŞ MAHALLESİ ANAFARTALAR CAD. NO: 230A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>MERİÇ MAHALLESİ 5746/15 SOK. NO: 6 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z33 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>YENİGÜN MAHALLESİ 1324 SOKAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>YENİGÜN MAH. 1312 SK. ZORER İŞ MERKEZİ NO: 4C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>KAZIMDİRİK MAH. 372 SK. E BLOK NO: 24K BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B47 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z09 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B60 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>YEŞİLOVA MAHALLESİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>BAHAR MAHALLESİ ESKİİZMİR CAD. NO: 120B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO: 32 İÇ KAPI NO: 107 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1 İÇ KAPI NO: Z70 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>EFELER MAHALLESİ 313 SK. NO:40/A ŞİRİNYER BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>KOZAĞAÇ MAHALLESİ 220 SK. NO: 66 A/0 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI NO:189 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>SAKARYA MAHALLESİ 2001 SOKAK NO:119/2C ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>KÖYİÇİ MAHALLESİ ANADOLU CAD. NO:788/1 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>BİNBAŞIREŞATBEY MAHALLESİ AKÇAY CADDESİ NO:35 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO:125/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİ HAVAALANI CADDESİ KİPA ALIŞVERİŞ MERKEZİ 40/Z89 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/215 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: Z18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/1B24 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 46 İÇ KAPI NO: Z05 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SOK. YAPRAK Apt. NO: 22 B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>GAZİ MAH. AKÇAY CAD. NO: 214 İÇ KAPI NO: 214 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: 113 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 30 İÇ KAPI NO: 129 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: 120 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>ERGENE MAH. MUSTAFA KEMAL CAD. GÜREŞÇİ NO: 16A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>MALTEPE MAH. 8110/4 SK. NO: 2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>KAHRAMANDERE MAH. SEFERİHİSAR CAD. NO: 68 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>BASIN SİTESİ MAH. İNÖNÜ CAD. UMUT NO: 365A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>KONAK MAH. MİLLİ KÜTÜPHANE CAD. İ. TEPEKÖYLÜ İŞ MERKEZİ NO: 17A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>KONAK MAH. MİLLİ KÜTÜPHANE CAD. NO: 6E KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>GÜNEŞLİ MAH. EŞREFPAŞA CAD. NO: 408 İÇ KAPI NO: 202 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>ÇAMTEPE MAH. MİTHATPAŞA CAD. KEMAL BAK NO: 265B NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>DOĞANLAR MAH. ANKARA CAD. NO: 192 İÇ KAPI NO: Z23 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>DOĞANLAR MAH. ANKARA CAD. NO: 192 İÇ KAPI NO: Z47 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>ÇETİN EMEÇ MAH. KIVANÇ SK. NOVADA NO: 12E İÇ KAPI NO: Z010 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO: 2/12 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>AKDENİZ MAHALLESİ 1326 SOKAK NO:16/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>BALATÇIK MAH. 8914 SK. NO: 3B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>AHMET EFENDİ MAH. HAVAALANI ŞOSESİ CAD. NO: 2C ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 267 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>TUNA MAH. KEMALPAŞA CAD. KASABA NO: 76 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>YİĞİTLER MAH. MENDERES CAD. TAŞTEKİN NO: 200AB BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: Z15 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ APT. NO: 101 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>YALI MAHALLESİ FLAMİNGO CAD. ALBAYRAK EVLERI SİTESİ ALBAYRAK EVLERİ BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD NO:675/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>ATAŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:7/202 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408 İZMİRPARK AVM MAĞAZA:207 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. B NO: 26 İÇ KAPI NO: 119 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>GÜZELYALI MAHALLESİ 56 SOKAK BOZKURT Apt. NO: 6 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>AKDENİZ MAH. HALİT ZİYA BUL. GENCER İŞHANI BLOK NO: 25B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 30 İÇ KAPI NO: 116 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>TUNA MAHALLESİ 1690 SK. BARIŞ BLOK NO: 78/1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>KÜLTÜR MAHALLESİ 1391 SOKAK NO:1/1-C ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>ALAÇATI MAH. 12012 SK. NO: 17 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SOK. NO:22/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: 126 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>YENİGÜN MAH. 913 SK. NO: 34 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>ÇAMLIK MAH. 851 SK. NO: 10-12A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>ALSANCAK MAHALLESİ 1456 SK. BAROHAN APT. NO: 16/23 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. E Apt. NO: 24 L BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 30 İÇ KAPI NO: Z12 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>ÜNİVERSİTE MAH. 4418 SK. NO: 5 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>ALAÇATI MAH. 18001 SK. NO: 3A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B34 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 119 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z101 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z15 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B26 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>AKTEPE MAHALLESİ AKÇAY CAD. NO:42/C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40 KAT:2 DAİRE:206 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>HACI MAHMUT MAHALLESİ MİLLİKÜTÜPHANE CAD. NO:9/11 / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. NO: 908B İÇ KAPI NO: B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>İSKELE MAH. 2070 SK. NO: 5 İÇ KAPI NO: 1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO: 6/8 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z06 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>KAZIMDİRİK MAH. 155 SK. BERKER BLOK NO: 2C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CADDESI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>BEYAZ EVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1385 SOKAK NO:3/Z01 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>MERİÇ MAH. 5746 SK. NO: 21 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO: 33-35 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>KÜLTÜR MAH. MEKSİKA SK. TURSEN NO: 4 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>KÜLTÜR MAH. MEKSİKA SK. KİPER NO: 19A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>BUCA KOOP MAHALLESİ 1419 SOKAK NO: 1B İÇ KAPI NO: 10 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>KIRKLAR MAH. KARATEKELİ CAD. KIRIKLAR F TİPİ CEZAEVİ NO: 58/1 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>KONAK MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ TİBAŞ İŞ MERKEZİ Apt. NO: 19 C/Z29 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>KONAK MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ TİBAŞ İŞ MERKEZİ Apt. NO: 19 C/Z38 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>YENİKALE MAH. MEHMET SEYFİ ERALTAY SK. NO: 8A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. NO: 39A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 224 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:24/L BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z17 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>ALSANCAK MAHALLESİ ATATÜRK CADDESİ GÜNDOĞDU BLOK NO: 244A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>YUNUS EMRE MAHALLESİ SIRRI ATALAY SK. NO:28 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>BAYRAKLI MAHALLESİ 1915 SOK. NO: 1 B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>KORUTÜRK MAHALLESİ HAVUZBAŞI SOKAK NO:3 AKUA PARK SİTESİ BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLER CAD. EBRU BLOK NO: 30A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>KONAK MAH. DR. FAİK MUHİTTİN ADAM CAD. TUNA İŞHANI NO: 24A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>AKDENİZ MAHALLESİ FEVZİPAŞA BULVARI NO: 49 D/D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO: 395 B/0 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>FAHRETTİN ALTAY MAHALLESİ MEHMETÇİK BULV. NO:24/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>KONAK MAHALLESİ 2.BEYLER CADDESİ 848 SOKAK NO:92 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13166,11 +11845,6 @@
           <t>KONAK MAH. 848 SK. NO: 86 İÇ KAPI NO: Z01 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13214,11 +11888,6 @@
           <t>AHMET EFENDİ MAHALLESİ HAVAALANI ŞOSESİ CAD. NO: 2 B ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13262,11 +11931,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 İZMİR OPTİMUM AVM NO:B1K-015 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13310,11 +11974,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO:32 İÇ KAPI NO: Z08 / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13358,11 +12017,6 @@
           <t>ALSANCAK MAHALLESİ 1382 SOK. NO:14/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13406,11 +12060,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BLV. NO:48 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13454,11 +12103,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. BAL-PA BLOK NO: 22 İÇ KAPI NO: 42 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13502,11 +12146,6 @@
           <t>DONANMACI MAH. ULVİ BAŞMAN SK. BABADAN BLOK NO: 46A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13550,11 +12189,6 @@
           <t>EFELER MAH. 346 SK. İBRAHİM BEY NO: 8A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13598,11 +12232,6 @@
           <t>KÜLTÜR MAHALLESİ PLEVNE BLV. SEMA Apt. NO: 1 /2A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13646,11 +12275,6 @@
           <t>ÇAMLIK MAHALLESİ 819 SK. NO:19/A ŞİRİNYER / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13694,11 +12318,6 @@
           <t>DEDEBAŞI MAH. ALİ ALP BÖKE CAD. SAFA NO: 145A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13742,11 +12361,6 @@
           <t>DUMLUPINAR MAHALLESİ 83 SK. NO:43 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13790,11 +12404,6 @@
           <t>ALAÇATI MAH. 11005 SK. NO: 22A İÇ KAPI NO: A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13838,11 +12447,6 @@
           <t>KONAK MAH. ANAFARTALAR CAD. NO: 150 İÇ KAPI NO: Z20 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13886,11 +12490,6 @@
           <t>ALAÇATI MAH. KEMALPAŞA CAD. NO: 48A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13934,11 +12533,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 254 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13982,11 +12576,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO: 40 İÇ KAPI NO: 214 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14030,11 +12619,6 @@
           <t>FAHRETTİN ALTAY MAH. 65/17 SK. NO: 7A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14078,11 +12662,6 @@
           <t>KAZIM DİRİK MAHALLESİ 225 SK. HACI HASAN ADALIOĞLU BLOK NO: 2 İÇ KAPI NO:C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14126,11 +12705,6 @@
           <t>KÜLTÜR MAHALLESİ CUMHURİYET BULVARI ATA BLOK NO: 182A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14174,11 +12748,6 @@
           <t>DOKUZ EYLÜL MAH. 331 SK. NO: 8 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14222,11 +12791,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14270,11 +12834,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14318,11 +12877,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14366,11 +12920,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 110 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14414,11 +12963,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z51 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14462,11 +13006,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 135 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14510,11 +13049,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14558,11 +13092,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14606,11 +13135,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14654,11 +13178,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z46 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14702,11 +13221,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 129 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14750,11 +13264,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z42 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14798,11 +13307,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14846,11 +13350,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14894,11 +13393,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14942,11 +13436,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14990,11 +13479,6 @@
           <t>KONAK MAHALLESİ 846 SOKAK NO: 42 İÇ KAPI NO: Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15038,11 +13522,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1 -/138- BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15086,11 +13565,6 @@
           <t>YENİGÜN MAHALLESİ ANAFARTALAR CADDESİ NO:397 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15134,11 +13608,6 @@
           <t>BARIŞ MAHALLESİ MENDERES CADDESI NO: 130 İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15182,11 +13651,6 @@
           <t>DUMLUPINAR MAHALLESİ ÖZMEN CADDESI NO: 60B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15230,11 +13694,6 @@
           <t>YİĞİTLER MAHALLESİ MENDERES CADDESI ÜNLÜ BLOK NO: 216B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15278,11 +13737,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO:2/24 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15326,11 +13780,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z55 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15374,11 +13823,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z59 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15422,11 +13866,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15470,11 +13909,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHAR DUDAYEV BULVARI NO:40 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15518,11 +13952,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHAR DUDAYEV BULVARI NO:40 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15566,11 +13995,6 @@
           <t>KÜLTÜR MAHALLESİ PLEVNE BULVARI NO:6/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15614,11 +14038,6 @@
           <t>MUSALLAH MAHALLESİ 1016 SOKAK NO: 2/9B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15662,11 +14081,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CADDESİ NO:8/Z24 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15710,11 +14124,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15758,11 +14167,6 @@
           <t>BEYAZEVLER MAHALLESİ OPTİMUM OUTLET VE EĞLENCE MERKEZİ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15806,11 +14210,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/146 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15854,11 +14253,6 @@
           <t>KÜLTÜR MAHALLESİ PLEVNE BULVARI NO:6/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15902,11 +14296,6 @@
           <t>UĞUR MAH. 834 SK. GENÇ ÇIZGI BLOK NO: 5A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -15950,11 +14339,6 @@
           <t>İSMET KAPTAN MAH. GAZİ OSMAN PAŞA BUL. NO: 9 İÇ KAPI NO: 73 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -15998,11 +14382,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372/30 NO:2/8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16046,11 +14425,6 @@
           <t>KONAK MAH. ANAFARTALAR CAD. MESERRET ÇARŞISI NO: 66 İÇ KAPI NO: Z03 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16094,11 +14468,6 @@
           <t>HALKAPINAR MAH. 1202 SK. NO: 83G KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16142,11 +14511,6 @@
           <t>ULUCAK CUMHURİYET MAH. ULUCAK İZMİR CAD. NO: 19A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16190,11 +14554,6 @@
           <t>GÜZELYALI MAHALLESİ 19 SK. NO: 9 /1A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16238,11 +14597,6 @@
           <t>ERGENE MAH. MUSTAFA KEMAL CAD. ZEMZEM NO: 26C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J329" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16286,11 +14640,6 @@
           <t>BARIŞ MAHALLESİ MENDERES CADDESI NO:134 B/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16334,11 +14683,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -16382,11 +14726,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO:30/Z15 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -16430,11 +14769,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO:121 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -16478,11 +14812,6 @@
           <t>AHMET EFENDİ MAH. HAVAALANI ŞOSESİ CAD. NO: 2C ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -16526,11 +14855,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:26/108 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -16574,11 +14898,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -16622,11 +14941,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SOKAK NOVADA BLOK NO: 10C İÇ KAPI NO: Z09 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -16670,11 +14984,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ MODA CD. NO:2/E SELWAY BLOK İÇ KAPI: Z038 BALÇOVA BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -16718,11 +15027,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ NO: 43A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -16766,11 +15070,6 @@
           <t>KONAK MAHALLESİ 887 SOKAK NO:3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -16814,11 +15113,6 @@
           <t>ARAP HASAN MAHALLESİ İNÖNÜ CAD. NO: 309 A/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -16862,11 +15156,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SOKAK NO:26/P FORUM BORNOVA A.V.M. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -16910,11 +15199,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: 149 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -16958,11 +15242,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:4 ÇANKAYA / İZMİR</t>
         </is>
       </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17006,11 +15285,6 @@
           <t>MEVLANA MAHALLESİ 1743 SOKAK NO: 48 İÇ KAPI NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17054,11 +15328,6 @@
           <t>NERGİZ MAH. 1775 SK. DOĞUŞ NO: 153B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J346" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17102,11 +15371,6 @@
           <t>KAZIMDİRİK MAH. 378 SK. NO: 6 İÇ KAPI NO: 202 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17150,11 +15414,6 @@
           <t>ÇETİN EMEÇ MAH. MODA SK. SELWAY NO: 3D İÇ KAPI NO: Z033 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17198,11 +15457,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1 İÇ KAPI NO: 131 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17246,11 +15500,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. PUNTA REZİDANS BLOK NO: 144 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17294,11 +15543,6 @@
           <t>KAZIMDİRİK MAH. SÜVARİ CAD. KAYA NO: 29B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -17342,11 +15586,6 @@
           <t>KAZIMDİRİK MAH. SÜVARİ CAD. BÜKE NO: 15C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -17390,11 +15629,6 @@
           <t>BEYAZ EVLER MAHALLESİ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -17438,11 +15672,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:10/B DAİRE:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -17486,11 +15715,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO:Z31 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J355" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -17534,11 +15758,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B32 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -17582,11 +15801,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -17630,11 +15844,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/167 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -17678,11 +15887,6 @@
           <t>DOĞANLAR MAHALLESİ ANKARA ASFALTI NO:192 / İZMİR</t>
         </is>
       </c>
-      <c r="J359" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -17726,11 +15930,6 @@
           <t>16 EYLÜL MAHALLESİ 2001 SOK. NO:89/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J360" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -17774,11 +15973,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BLV. NO: 6/605 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J361" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -17822,11 +16016,6 @@
           <t>KÜLTÜR MAH. ALİ ÇETİNKAYA BUL. SIDKI BEY BLOK NO: 30B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -17870,11 +16059,6 @@
           <t>KÜLTÜR MAH. ŞAİR EŞREF BUL. ELVAN BLOK NO: 59B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -17918,11 +16102,6 @@
           <t>ILICA MAH. ERDAL İNÖNÜ CAD. NO: 11 İÇ KAPI NO: 8 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -17966,11 +16145,6 @@
           <t>BALATÇIK MAHALLESİ 8923/1 SOKAK NO:2/H ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18014,11 +16188,6 @@
           <t>AKTEPE MAHALLESİ AKÇAY CAD. NO:42/E GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J366" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -18062,11 +16231,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 B1K-034/ZK-028 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J367" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -18110,11 +16274,6 @@
           <t>DONANMACI MAHALLESİ ŞÜKRAN KARADUL SOKAK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J368" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -18158,11 +16317,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:26/118 MAVİŞEHİR KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J369" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -18206,11 +16360,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO: 145 -151/11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -18254,11 +16403,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z22 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -18302,11 +16446,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ MENDERES CAD. NO:1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -18350,11 +16489,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 113 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -18398,11 +16532,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -18446,11 +16575,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:127/129 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J375" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -18494,11 +16618,6 @@
           <t>KONAK MAHALLESİ ATATÜRK CADDESİ NO:19 KONAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -18542,11 +16661,6 @@
           <t>EŞREFPAŞA MAHALLESİ EŞREFPAŞA CAD. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -18590,11 +16704,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J378" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -18638,11 +16747,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J379" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -18686,11 +16790,6 @@
           <t>DONANMACI MAHALLESİ CEMAL GÜRSEL CADDESİ NO:356/A KARŞIYAKA Apt. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J380" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -18734,11 +16833,6 @@
           <t>YENİKALE MAH. BARAN SK. NO: 12A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J381" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -18782,11 +16876,6 @@
           <t>KÜLTÜR MAHALLESİ 1383 SOK. ERTUĞ BLOK NO: 5A İÇ KAPI NO: 5A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J382" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -18830,11 +16919,6 @@
           <t>AKDENİZ MAH. HALİT ZİYA BUL. GENCER İŞHANI NO: 25A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J383" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -18878,11 +16962,6 @@
           <t>KÜLTÜR MAH. CUMHURİYET BUL. PITRAK BLOK NO: 191A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J384" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -18926,11 +17005,6 @@
           <t>KÖY İÇİ MAHALLESİ ANADOLU CADDESI NO:816 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J385" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -18974,11 +17048,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. FORUM C BLOK Sit. C BLOK Apt. NO: 30 E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J386" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -19022,11 +17091,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B64 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -19070,11 +17134,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -19118,11 +17177,6 @@
           <t>LALE MAH. 3576 SK. NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -19166,11 +17220,6 @@
           <t>YALI MAH. 6500/1 SK. NO: 10E İÇ KAPI NO: 4 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -19214,11 +17263,6 @@
           <t>AKDENİZ MAHALLESİ 1334 SOKAK NO:10 DAİRE:304 ÇANKAYA / İZMİR</t>
         </is>
       </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -19262,11 +17306,6 @@
           <t>DONANMACI MAH. HÜSEYİN ÇAĞLAYAN SK. NO: 13A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -19310,11 +17349,6 @@
           <t>AKTEPE MAHALLESİ AKÇAY CD. NO:42 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -19358,11 +17392,6 @@
           <t>DONANMACI MAHALLESİ KEMAL PAŞA CADDESİ NO:67/Z1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -19406,11 +17435,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -19454,11 +17478,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO:32/121 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J396" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -19502,11 +17521,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J397" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -19550,11 +17564,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J398" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -19598,11 +17607,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:24/101 MAVİŞEHİR KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J399" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -19646,11 +17650,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 NO:84/Z2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J400" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -19694,11 +17693,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/1B31 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J401" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -19742,11 +17736,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO:46/2B4 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J402" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -19790,11 +17779,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK E Apt. NO: 24 D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J403" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -19838,11 +17822,6 @@
           <t>ERGENE MAHALLESİ 538 SK. NO:1/13 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J404" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -19886,11 +17865,6 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2001 SOK. NO:20/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J405" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -19934,11 +17908,6 @@
           <t>BALATÇIK MAHALLESİ 8923/1 SOKAK NO:2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J406" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -19982,11 +17951,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ AKÇAY CAD. MİGROS AVM BLOK NO: 253/3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J407" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -20030,11 +17994,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408/Z05 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J408" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -20078,11 +18037,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SOKAK A BLOK NO: 84 İÇ KAPI NO: Z04 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J409" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -20126,11 +18080,6 @@
           <t>CAMİKEBİR MAHALLESİ 48 SK. NO:1-3/4 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J410" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -20174,11 +18123,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO:6/15 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J411" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -20222,11 +18166,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 1762 SK. NO:6 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J412" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -20270,11 +18209,6 @@
           <t>KESTELLİ MAHALLESİ ANAFARTALAR CADDESİ NO:188 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J413" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -20318,11 +18252,6 @@
           <t>ERZENE MAH. 85 SK. ALYANS SİTESİ A NO: 10 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J414" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -20366,11 +18295,6 @@
           <t>KONAK MAH. 871 SK. NO: 50 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J415" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -20414,11 +18338,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 İZMİR OPTİMUM AVM. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J416" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -20462,11 +18381,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. SAĞIROĞLU BLOK NO: 9A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J417" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -20510,11 +18424,6 @@
           <t>ARAP HASAN MAHALLESİ İNÖNÜ CAD. PINAR BLOK NO: 301D KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J418" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -20558,11 +18467,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CAD. NO: 101 -/- KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J419" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -20606,11 +18510,6 @@
           <t>YİĞİTLER MAH. MENDERES CAD. NO: 224B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J420" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -20654,11 +18553,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: Z59 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J421" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -20702,11 +18596,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:26/106 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J422" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -20750,11 +18639,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/1B37 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J423" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -20798,11 +18682,6 @@
           <t>ETİLER MAHALLESİ 1264 SOKAK NO:8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J424" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -20846,11 +18725,6 @@
           <t>KÜLTÜR MAHALLESİ MUSTAFA BEY CAD. NO:12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J425" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -20894,11 +18768,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SOKAK FORUM BORNOVA A.V.M. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J426" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -20942,11 +18811,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 138 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J427" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -20990,11 +18854,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/116 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J428" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -21038,11 +18897,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J429" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -21086,11 +18940,6 @@
           <t>ATIFBEY MAH. 8/1 SK. NO: 3C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J430" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -21134,11 +18983,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SOKAK NO:23/A İÇ KAPI NO: 23A GÜL BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J431" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -21182,11 +19026,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO:30/Z01 AGORA ALV.MERKEZİ (YENİ)SİT. BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J432" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -21230,11 +19069,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. İNŞAAT Apt. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J433" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -21278,11 +19112,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 151 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J434" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -21326,11 +19155,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. İNŞAAT Apt. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -21374,11 +19198,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 148 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J436" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -21422,11 +19241,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CADDESİ NO:8/Z02 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J437" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -21470,11 +19284,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHAR DUDAYEV BULVARI MAVİŞEHİR KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J438" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -21518,11 +19327,6 @@
           <t>CAMİKEBİR MAHALLESİ 48 SK. NO: 1 -3/16 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J439" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -21566,11 +19370,6 @@
           <t>ÇINAR MAHALLESİ YILDIRIM BEYAZIT CAD. NO: 5/101 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J440" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -21614,11 +19413,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. FORUM C BLOK Sit. C BLOK Apt. NO: 30 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J441" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -21662,11 +19456,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CADDESİ NO:77/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J442" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -21710,11 +19499,6 @@
           <t>SAKARYA MAHALLESİ 2001 SOKAK NO:119/1A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J443" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -21758,11 +19542,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİ HAVAALANI CADDESİ NO:40/Z 93 ÇİĞLİ KİPA AVM ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J444" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -21806,11 +19585,6 @@
           <t>ZAFER MAH. AKÇAY CAD. NO: 142B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J445" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -21854,11 +19628,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 153 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J446" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -21902,11 +19671,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -21950,11 +19714,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO:179/K KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -21998,11 +19757,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:19/Z40 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -22046,11 +19800,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -22094,11 +19843,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SOKAK NO:14/G BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J451" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -22142,11 +19886,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408/112 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J452" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -22190,11 +19929,6 @@
           <t>YEŞİLOVA MAHALLESİ 474 SK. NO:113 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -22238,11 +19972,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO:6/16 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -22286,11 +20015,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z52 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -22334,11 +20058,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK FORUM SİTESİ A4 BLOK NO: 32F BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -22382,11 +20101,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -22430,11 +20144,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO: 103/_ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -22478,11 +20187,6 @@
           <t>BARBAROS MAHALLESİ 5329 SOKAK NO:13/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -22526,11 +20230,6 @@
           <t>YİĞİTLER MAHALLESİ MENDERES CADDESI NO:214/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -22574,11 +20273,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -22622,11 +20316,6 @@
           <t>KONAK MAH. ANAFARTALAR CAD. SALEPÇİOĞLU VAKIF ÇARŞI İŞHANI BLOK NO: 96 İÇ KAPI NO: 305 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -22670,11 +20359,6 @@
           <t>KÜLTÜR MAH. PLEVNE BUL. SAR NO: 4 İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -22718,11 +20402,6 @@
           <t>DONANMACI MAH. ULVİ BAŞMAN SK. TURHAN NO: 16A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J464" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -22766,11 +20445,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SK. NO: 19 A/19A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J465" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -22814,11 +20488,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/135 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J466" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -22862,11 +20531,6 @@
           <t>BEYAZEVLER MAHALLESİ İZMİR OPT. OUTLET VE EĞL. MERK. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J467" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -22910,11 +20574,6 @@
           <t>EFELER MAHALLESİ ATİLLA ERASLAN SK. NO:10/3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -22958,11 +20617,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BLV. TEST APT. NO: 55 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -23006,11 +20660,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. A APT. NO: 84/2B03 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -23054,11 +20703,6 @@
           <t>AKDENİZ MAH. GAZİ BUL. DOĞAN GÜVEN İŞ MERKEZİ NO: 50 İÇ KAPI NO: 208 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -23102,11 +20746,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. ELMASTAŞOĞLU BLOK NO:45A İÇ KAPI NO:45A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -23150,11 +20789,6 @@
           <t>KESTELLİ MAH. KESTELLİ CAD. YILDIRIM İŞ HANI NO: 63C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -23198,11 +20832,6 @@
           <t>İNÖNÜ MAH. 682/14 SK. NO: 2/2A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -23246,11 +20875,6 @@
           <t>UFUK MAHALLESİ 893 SK. NO: 2 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J475" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -23294,11 +20918,6 @@
           <t>KÜLTÜR MAH. MEKSİKA SK. KİPER NO: 19B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J476" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -23342,11 +20961,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO: 40 İÇ KAPI NO: 114 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J477" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -23390,11 +21004,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO:34 PALMİYE A.L.V.M SİTESİ İÇ KAPI NO: Z003 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J478" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -23438,11 +21047,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:128/A 101-102-103-104-105-106-107 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J479" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -23486,11 +21090,6 @@
           <t>9 EYLÜL MAHALLESİ KAHRAMANLAR CD. NO:33 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J480" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -23534,11 +21133,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/Z35 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J481" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -23582,11 +21176,6 @@
           <t>MUSALLAH MAHALLESİ 1016 SOKAK NO:2/15B ÇEŞME MARİNA ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J482" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -23630,11 +21219,6 @@
           <t>AKDENİZ MAHALLESİ KAZIM DİRİK CAD. NO:54/B ALSANCAK / İZMİR</t>
         </is>
       </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -23678,11 +21262,6 @@
           <t>AKDENİZ MAHALLESİ NECATİBEY BULVARI KAMİL İŞHANI BLOK NO: 4 İÇ KAPI NO: 502 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -23726,11 +21305,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 28 İÇ KAPI NO: 106 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J485" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -23774,11 +21348,6 @@
           <t>MUSALLA MAHALLESİ 1016 SK. NO: 2 /3C ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J486" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -23822,11 +21391,6 @@
           <t>TOKOĞLU MAHALLESİ KEMALPAŞA CAD. NO:56 ALAÇATI ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J487" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -23870,11 +21434,6 @@
           <t>ÇAKABEY MAH. 2234 SK. NO: 50/2 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J488" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -23918,11 +21477,6 @@
           <t>ATAKENT MAH. 2032 SK. NO: 14A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J489" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -23966,11 +21520,6 @@
           <t>ATAŞEHİR MAH. 8001 SK. YAĞCI İŞ MERKEZİ NO: 43 İÇ KAPI NO: 309 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -24014,11 +21563,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BLV. NO:26 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -24062,11 +21606,6 @@
           <t>KONAK MAHALLESİ 872 SOKAK NO:40 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -24110,11 +21649,6 @@
           <t>KÜLTÜR MAH. CUMHURİYET BUL. BAİS NO: 180 İÇ KAPI NO: 51 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -24158,11 +21692,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z72 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -24206,11 +21735,6 @@
           <t>GÜZELYURT MAH. ANAFARTALAR CAD. YEŞİL DİREK PASAJI NO: 288 İÇ KAPI NO: Z02 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -24254,11 +21778,6 @@
           <t>ETİLER MAH. 1268 SK. AKER İŞ HANI NO: 14 İÇ KAPI NO: 202 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -24302,11 +21821,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CD. NO:287 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J497" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -24350,11 +21864,6 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J498" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -24398,11 +21907,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BULVARI RAGIP ŞANLI IŞ MERKEZI BLOK NO: 6D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J499" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -24446,11 +21950,6 @@
           <t>KÜLTÜR MAHALLESİ CUMHURİYET BULVARI NO: 168 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J500" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -24494,11 +21993,6 @@
           <t>BOSTANLI MAH. ŞEHİTLER BUL. ONUR-1 NO: 23C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J501" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -24542,11 +22036,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO: 103/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J502" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -24590,11 +22079,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO: 13/1 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J503" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -24638,11 +22122,6 @@
           <t>MUSTAFA KEMAL PAŞA MAH. ATATÜRK CAD. NO: 39B GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J504" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -24686,11 +22165,6 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. NO: 72 İÇ KAPI NO: A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J505" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -24734,11 +22208,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI NO: 3 C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J506" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -24782,11 +22251,6 @@
           <t>EFELER MAHALLESİ FORBES SOKAK NO: 36 A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J507" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -24830,11 +22294,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:54/56 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J508" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -24878,11 +22337,6 @@
           <t>ALSANCAK MAH. YÜZBAŞI ŞERAFETTİN BEY SK. NO: 37 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J509" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -24926,11 +22380,6 @@
           <t>YALI MAHALLESİ 6522 SOK. HİLLTOVVN AVM BLOK NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J510" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -24974,11 +22423,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J511" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -25022,11 +22466,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J512" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -25070,11 +22509,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J513" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -25118,11 +22552,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/123 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J514" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -25166,11 +22595,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J515" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -25214,11 +22638,6 @@
           <t>YALI MAH. 6522 SK. HİLLTOVVN AVM BLOK NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J516" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -25262,11 +22681,6 @@
           <t>ALAÇATI MAH. 12012 SK. NO: 56 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J517" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -25310,11 +22724,6 @@
           <t>TUNA MAH. İBRAHİM YILMAZ SK. NO: 8 İÇ KAPI NO: 204 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J518" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -25358,11 +22767,6 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO: 126 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J519" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -25406,11 +22810,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO: 51 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J520" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -25454,11 +22853,6 @@
           <t>EFELER MAHALLESİ 350 SK. NO:5 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J521" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -25502,11 +22896,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J522" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -25550,11 +22939,6 @@
           <t>YILDIZ MAHALLESİ 206/5 SK. NO:82 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J523" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -25598,11 +22982,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 39/3408 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J524" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -25646,11 +23025,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B44 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J525" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -25694,11 +23068,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/117 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J526" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -25742,11 +23111,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J527" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -25790,11 +23154,6 @@
           <t>CAMİATİK MAHALLESİ NO:1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J528" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -25838,11 +23197,6 @@
           <t>GAZİ MAHALLESİ AKÇAY CAD. NO:164/C/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J529" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -25886,11 +23240,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO: 40 İÇ KAPI NO: 119 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J530" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -25934,11 +23283,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:26/G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J531" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -25982,11 +23326,6 @@
           <t>ÇINARLI MAHALLESİ OZAN ABAY CAD. NO: 8/102 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J532" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -26030,11 +23369,6 @@
           <t>KONAK MAHALLESİ 872 SOKAK NO:10 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J533" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -26078,11 +23412,6 @@
           <t>AKDENİZ MAHALLESİ 1334 SOKAK NO:10/D ŞABAN ŞINLAK ÇARŞISI BLOK ÇANKAYA KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J534" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -26126,11 +23455,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J535" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -26174,11 +23498,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO: 103/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J536" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -26222,11 +23541,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. PALMİYE A.L.V.M SİTESİ NO: 34 İÇ KAPI NO: Z038 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J537" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -26270,11 +23584,6 @@
           <t>İNKİLAP MAHALLESİ 517 SK. NO:16/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J538" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -26318,11 +23627,6 @@
           <t>GÜNALTAY MAH. 4858 SK. NO: 8A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J539" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -26366,11 +23670,6 @@
           <t>CAMİKEBİR MAH. İZMİR CAD. NO: 127-129B SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J540" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -26414,11 +23713,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEVKET ÖZÇELİK SOKAK NO:10/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J541" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -26462,11 +23756,6 @@
           <t>SAKARYA MAHALLESİ 2001 SOKAK NO: 119/1K ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J542" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -26510,11 +23799,6 @@
           <t>TOKOĞLU MAHALLESİ UĞUR MUMCU CAD. NO:3/A ALAÇATI ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J543" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -26558,11 +23842,6 @@
           <t>ERGENE MAHALLESİ MUSTAFA KEMAL CAD. ÇELİK SİTESİ B BLOK NO: 20E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J544" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -26606,11 +23885,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CADDESİ NO: 75 -2C/0 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J545" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -26654,11 +23928,6 @@
           <t>AHMET EFENDİ MAHALLESİ HAVAALANI ŞOSESİ CAD. NO:2/AB ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J546" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -26702,11 +23971,6 @@
           <t>ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA NO: 8 İÇ KAPI NO: Z04 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J547" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -26750,11 +24014,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:30/F/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J548" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -26798,11 +24057,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. YAZGAN Apt. NO: 367 A/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J549" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -26846,11 +24100,6 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J550" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -26894,11 +24143,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 122 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J551" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -26942,11 +24186,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO: 119-123 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J552" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -26990,11 +24229,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. KONAK PIER Apt. NO: 19/Z20 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J553" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -27038,11 +24272,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J554" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -27086,11 +24315,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J555" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -27134,11 +24358,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO:408/Z10 İZMİR PARK AVM KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J556" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -27182,11 +24401,6 @@
           <t>DOĞANLAR MAH. ANKARA CAD. NO: 192 İÇ KAPI NO: Z36 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J557" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -27230,11 +24444,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO:84/129 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J558" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -27278,11 +24487,6 @@
           <t>CAMİKEBİR MAHALLESİ 48 SK. NO:1/3/2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J559" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -27326,11 +24530,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SOKAK NO: 8 O/105 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J560" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -27374,11 +24573,6 @@
           <t>YİĞİTLER MAHALLESİ MENDERES CADDESI ÜNLÜ BLOK NO: 216A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J561" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -27422,11 +24616,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO:6/71 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J562" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -27470,11 +24659,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z17 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J563" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -27518,11 +24702,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO:121/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J564" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -27566,11 +24745,6 @@
           <t>FATİH MAH. EGE CAD. NO: 40/4 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J565" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -27614,11 +24788,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO: 135 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J566" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -27662,11 +24831,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO:2 ÇEŞME MARİNA ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J567" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -27710,11 +24874,6 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2001 SK. NO: 78 C/_ ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J568" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -27758,11 +24917,6 @@
           <t>YENİGÜN MAHALLESİ FEVZİPAŞA BULVARI NO:122/1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J569" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -27806,11 +24960,6 @@
           <t>YENİGÜN MAHALLESİ FEVZİPAŞA BULVARI NO:122 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J570" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -27854,11 +25003,6 @@
           <t>KÜLTÜR MAHALLESİ İTALYAN SK. NO:23/C GELİNCİK BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J571" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -27902,11 +25046,6 @@
           <t>YENİ MAHALLE MAHALLESİ 8764/5 SK. NO: 16 A ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J572" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -27950,11 +25089,6 @@
           <t>KONAK MAH. MİLLİ KÜTÜPHANE CAD. NO: 12F KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J573" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -27998,11 +25132,6 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO:11 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J574" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -28046,11 +25175,6 @@
           <t>AKDENİZ MAHALLESİ 1330 SOKAK NO:19/301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J575" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -28094,11 +25218,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/214 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J576" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -28142,11 +25261,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J577" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -28190,11 +25304,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:10/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J578" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -28238,11 +25347,6 @@
           <t>EGEMENLİK MAH. 6148 SK. NO: 22 İÇ KAPI NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J579" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -28286,11 +25390,6 @@
           <t>AKDENİZ MAH. FEVZİPAŞA BUL. KATİPOĞLU OTEL NO: 41/2A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J580" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -28334,11 +25433,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CAD. NO: 27 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J581" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -28382,11 +25476,6 @@
           <t>İNKILAP MAH. 504 SK. NO: 11A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J582" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -28430,11 +25519,6 @@
           <t>MEHMET AKİF ERSOY MAH. ÖĞRETMEN TAHİR TUNCA CAD. NO: 56C KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J583" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -28478,11 +25562,6 @@
           <t>AŞIKVEYSEL MAHALLESİ 5911 SK. NO:3/11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J584" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -28526,11 +25605,6 @@
           <t>BARIŞ MAH. ADNAN KAHVECİ CAD. NO: 107G BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J585" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -28574,11 +25648,6 @@
           <t>DONANMACI MAHALLESİ SALAH BİRSEL SOKAK ARÇA BLOK NO: 21A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J586" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -28622,11 +25691,6 @@
           <t>MANSUROĞLU MAHALLESİ 270/2 SOK. ASİL C BLOK NO: 1A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J587" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -28670,11 +25734,6 @@
           <t>AKDENİZ MAHALLESİ 1332 SOKAK SERTER IS HANI Apt. NO: 2/502 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J588" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -28718,11 +25777,6 @@
           <t>ADATEPE MAHALLESİ 2/21 SOK. NO:3 DAİRE:1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J589" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -28766,11 +25820,6 @@
           <t>EFELER MAHALLESİ FORBES SK. NO:52/A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J590" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -28814,11 +25863,6 @@
           <t>KONAK MAHALLESİ 872 SK. NO: 24/MÜSTAKİL KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J591" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -28862,11 +25906,6 @@
           <t>ÇINARLI MAHALLESİ 1561 SOKAK NO:110 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J592" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -28910,11 +25949,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. BAYKAL BENER BLOK NO: 932B İÇ KAPI NO: B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J593" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -28958,11 +25992,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO: 30 İÇ KAPI NO: 106 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J594" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -29006,11 +26035,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI KAT:1 DAİRE:118 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J595" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -29054,11 +26078,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SK. NO: 33/_ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J596" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -29102,11 +26121,6 @@
           <t>ONUR MAHALLESİ DALYA SK. SEFA APARTMANI Sit. YILDIRIM KIRAATHANESİ BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J597" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -29150,11 +26164,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO: 101/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J598" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -29198,11 +26207,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. SARI KAYA NO: 30A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J599" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -29246,11 +26250,6 @@
           <t>KÜLTÜR MAH. MEKSİKA SK. TURSEN NO: 4A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J600" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -29294,11 +26293,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO:31 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J601" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -29342,11 +26336,6 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO:96/101 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J602" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -29390,11 +26379,6 @@
           <t>ESENLİK MAH. ANT CAD. ALACAN NO: 7B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J603" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -29438,11 +26422,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO: 28 İÇ KAPI NO: 112 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J604" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -29486,11 +26465,6 @@
           <t>ALAÇATI MAH. KEMALPAŞA CAD. NO: 37A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J605" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -29534,11 +26508,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B39 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J606" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -29582,11 +26551,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI TUĞBA BLOK NO: 3B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J607" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -29630,11 +26594,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. NO: 8G BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J608" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -29678,11 +26637,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO: 89 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J609" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -29726,11 +26680,6 @@
           <t>ALSANCAK MAHALLESİ KIBRIS ŞEHİTLERİ CADDESİ H.ÜSTAY Apt. NO: 117 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J610" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -29774,11 +26723,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO:84/124 Point Bornova BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J611" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -29822,11 +26766,6 @@
           <t>YİĞİTLER MAHALLESİ MENDERES CAD. GÜLEROĞLU BLOK NO: 212A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J612" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -29870,11 +26809,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z65 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J613" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -29918,11 +26852,6 @@
           <t>DONANMACI MAHALLESİ 1715 SK. NO:19/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J614" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -29966,11 +26895,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CAD. NO: 117 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J615" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -30014,11 +26938,6 @@
           <t>MEHMET AKİF ERSOY MAH. KİRAZLI CAD. NO: 113A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J616" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -30062,11 +26981,6 @@
           <t>EFELER MAHALLESİ 313 SK. NO:52/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J617" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -30110,11 +27024,6 @@
           <t>FATİH MAHALLESİ 1185 SOK. NO:8/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J618" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -30158,11 +27067,6 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SOKAK NO:121/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J619" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -30206,11 +27110,6 @@
           <t>YAMANLAR MAHALLESİ 7351 SOK. NO:39/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J620" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -30254,11 +27153,6 @@
           <t>KAZIM DİRİK MAHALLESİ 367/6 SOKAK NO:5/D MULTİ TÜRK KIRKİKİ YATIRIM Apt BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J621" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -30302,11 +27196,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO: 2/14B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J622" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -30350,11 +27239,6 @@
           <t>KONAK MAHALLESİ 871 SOKAK NO:43 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J623" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -30398,11 +27282,6 @@
           <t>BOSTANLI MAH. CEMAL BÜLBÜL SK. NO: 18 İÇ KAPI NO: 6 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J624" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -30446,11 +27325,6 @@
           <t>ATATÜRK MAH. 220 SK. NO: 49/51A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J625" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -30494,11 +27368,6 @@
           <t>UĞUR MAHALLESİ 851 SOKAK NO:10 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J626" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -30542,11 +27411,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CAD. ÇİĞLİ KİPA BLOK NO: 40 İÇ KAPI NO: Z86 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J627" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -30590,11 +27454,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ ORHAN ŞAİK GÖKYAY CD. NO:47A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J628" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -30638,11 +27497,6 @@
           <t>GÜNEŞLİ MAHALLESİ EŞREFPAŞA CADDESİ NO: 408 İÇ KAPI NO: 312 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J629" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -30686,11 +27540,6 @@
           <t>KASIMPAŞA MAH. 250 SK. B BLOK NO: 45E MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J630" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -30734,11 +27583,6 @@
           <t>NARLI MAHALLESİ MİTHATPAŞA CAD. KARASU SİTESİ NO: 311B NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J631" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -30782,11 +27626,6 @@
           <t>ÇUKURALTI MAH. MUSTAFA KEMAL PAŞA BUL. NO: 85/A İÇ KAPI NO: A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J632" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -30830,11 +27669,6 @@
           <t>DOĞANLAR MAHALLESİ ANKARA CADDESI NO: 192 İÇ KAPI NO: Z42 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J633" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -30878,11 +27712,6 @@
           <t>ŞEMİKLER MAH. 6243 SK. NO: 2A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J634" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -30926,11 +27755,6 @@
           <t>YUNUS EMRE MAH. SIRRI ATALAY SK. NO: 38C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J635" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -30974,11 +27798,6 @@
           <t>ETİLER MAHALLESİ 1264 SOKAK NO:10/12 BASMANE KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J636" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -31022,11 +27841,6 @@
           <t>ERGENE MAHALLESİ M.KEMAL CAD. 553 SK. NO:2/1-A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J637" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -31070,11 +27884,6 @@
           <t>HATAY MAH. MAHALLESİ İNÖNÜ CAD. NO:337/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J638" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -31118,11 +27927,6 @@
           <t>TUNA MAHALLESİ KEMAL PAŞA CADDESİ NO:146/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J639" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -31166,11 +27970,6 @@
           <t>İSMET KAPTAN MAH. ŞEVKET ÖZÇELİK SK. GÜVEN ISHANI NO: 59 İÇ KAPI NO: 514 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J640" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -31214,11 +28013,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/166 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J641" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -31262,11 +28056,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: Z03 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J642" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -31310,11 +28099,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/115 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J643" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -31358,11 +28142,6 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2001 SOK. NO:86/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J644" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -31406,11 +28185,6 @@
           <t>DOKUZ EYLÜL MAH. AKÇAY CAD. TOYOTA NO: 267A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J645" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -31454,11 +28228,6 @@
           <t>ALSANCAK MAHALLESİ 1469 SK. NO:1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J646" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -31502,11 +28271,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SOKAK NO:10/D FORUM BORNOVA A.V.M. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J647" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -31550,11 +28314,6 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J648" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -31598,11 +28357,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B155 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J649" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -31646,11 +28400,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B50 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J650" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -31694,11 +28443,6 @@
           <t>BEYAZEVLER MAHALLESİ İZMİR OPTİMUM OUTLET VE EĞLENCE MERKEZİ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J651" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -31742,11 +28486,6 @@
           <t>RAFETPAŞA MAHALLESİ 5366 SOKAK NO:78/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J652" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -31790,11 +28529,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM APT. NO: 3 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J653" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -31838,11 +28572,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 OPTİMUM OUTLET ALIŞVERİŞ MERKEZİ -B2K-011 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J654" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -31886,11 +28615,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A BLOK NO: 84 İÇ KAPI NO: 101 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J655" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -31934,11 +28658,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM SİT. İNŞAAT APT. NO: 3/0 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J656" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -31982,11 +28701,6 @@
           <t>KÜLTÜR MAH. İTALYA SK. EFEM BLOK NO: 1A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J657" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -32030,11 +28744,6 @@
           <t>YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: Z086 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J658" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -32078,11 +28787,6 @@
           <t>KONAK MAHALLESİ 904 SOKAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J659" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -32126,11 +28830,6 @@
           <t>KONAK MAHALLESİ 853 SOK. NO:13 ÖZYURTSEVER İŞHANI BLOK İÇ KAPI NO: Z17 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J660" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -32174,11 +28873,6 @@
           <t>ÇATALKAYA MAHALLESİ EDİPBEY SK NO:21/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J661" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -32222,11 +28916,6 @@
           <t>ÇAMTEPE MAH. MİTHATPAŞA CAD. OSMAN BEY NO: 225C NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J662" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -32270,11 +28959,6 @@
           <t>KAZIMDİRİK MAH. SÜVARİ CAD. BİRLİK BLOK NO: 71A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J663" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -32318,11 +29002,6 @@
           <t>ÇALIKUŞU MAHALLESİ 3192 SK. NO: 6 A/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J664" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -32366,11 +29045,6 @@
           <t>İSMET İNÖNÜ MAH. 2123 SK. KONTEYNIR BLOK NO: 27/1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J665" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -32414,11 +29088,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J666" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -32462,11 +29131,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z24 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J667" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -32510,11 +29174,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. İNŞAAT Apt. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J668" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -32558,11 +29217,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J669" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -32606,11 +29260,6 @@
           <t>MUSALLA MAHALLESİ 1016 SOK. NO:2/14A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J670" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -32654,11 +29303,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z27 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J671" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -32702,11 +29346,6 @@
           <t>CELAL BAYAR MAH. 5152 SK. NO: 43 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J672" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -32750,11 +29389,6 @@
           <t>YENİMECİDİYE MAHALLESİ KEMALPAŞA CAD. NO:76/B ALAÇATI ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J673" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -32798,11 +29432,6 @@
           <t>MUSALLAH MAHALLESİ 1016 SOKAK NO:2/11 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J674" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -32846,11 +29475,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z39 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J675" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -32894,11 +29518,6 @@
           <t>YALI MAHALLESİ 6522 SK. HİLLTOVVN AVM Sit. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J676" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -32942,11 +29561,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J677" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -32990,11 +29604,6 @@
           <t>İSMET KAPTAN MAHALLESİ HÜRRİYET BULVARI NO:4/1C KAVALA PLAZA BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J678" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -33038,11 +29647,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI SONAT BLOK NO: 219B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J679" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -33086,11 +29690,6 @@
           <t>EGEMENLİK MAH. 6148 SK. NO: 22 İÇ KAPI NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J680" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -33134,11 +29733,6 @@
           <t>YENİ MAH. ERİNÇ SK. NO: 10 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J681" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -33182,11 +29776,6 @@
           <t>BOSTANLI MAH. CENGİZ KOCATOROS SK. İNŞAAT NO: 17 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J682" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -33230,11 +29819,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J683" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -33278,11 +29862,6 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. NO:26 DİKERSAN Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J684" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -33326,11 +29905,6 @@
           <t>ALAÇATI MAH. 11003 SK. NO: 14 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J685" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -33374,11 +29948,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:16 / İZMİR</t>
         </is>
       </c>
-      <c r="J686" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -33422,11 +29991,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J687" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -33470,11 +30034,6 @@
           <t>YİĞİTLER MAHALLESİ MENDERES CADDESI NO:194/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J688" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -33518,11 +30077,6 @@
           <t>ÇAY MAH. ŞEHİT HAKAN UYSAL SK. NO: 112A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J689" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -33566,11 +30120,6 @@
           <t>ATAŞEHİR MAHALLESİ ANADOLU CADDESİ NO:965 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J690" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -33614,11 +30163,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:10/5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J691" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -33662,11 +30206,6 @@
           <t>POLİGON MAH. İNÖNÜ CAD. ATA BLOK NO: 695/1A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J692" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -33710,11 +30249,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI NO:42/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J693" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -33758,11 +30292,6 @@
           <t>KONAK MAHALLESİ 872 SOKAK NO: 4 A/4A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J694" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -33806,11 +30335,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULV. KROM İŞHANI Apt. NO: 6 B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J695" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -33854,11 +30378,6 @@
           <t>FIRAT MAHALLESİ 647/8 SK. NO:20/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J696" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -33902,11 +30421,6 @@
           <t>ALAÇATI MAH. 11005 SK. NO: 8A İÇ KAPI NO: A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J697" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -33950,11 +30464,6 @@
           <t>ALTINTAŞ MAH. CEVİZLİ SK. NO: 20/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J698" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -33998,11 +30507,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CAD. ÇİĞLİ KİPA BLOK NO: 40 İÇ KAPI NO: 117 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J699" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -34046,11 +30550,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8972/2 SK. NO: 2A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J700" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -34094,11 +30593,6 @@
           <t>BOSTANLI MAH. 1794 SK. VEHBİ GÜNDÜÇ NO: 16A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J701" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -34142,11 +30636,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z107 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J702" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -34190,11 +30679,6 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. NO:14/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J703" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -34238,11 +30722,6 @@
           <t>KÜLTÜR MAHALLESİ TALATPAŞA BLV. SIRRI BEY BLOK NO: 11 İÇ KAPI NO: 16 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J704" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -34286,11 +30765,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 161 SK. NO: 6 B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J705" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -34334,11 +30808,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z99 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J706" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -34382,11 +30851,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z77 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J707" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -34430,11 +30894,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z75 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J708" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -34478,11 +30937,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z76 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J709" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -34526,11 +30980,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z79 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J710" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -34572,11 +31021,6 @@
       <c r="I711" s="2" t="inlineStr">
         <is>
           <t>AKDENİZ MAH. CUMHURİYET BUL. ELBİR İŞHANI BLOK NO: 84A KONAK / İZMİR</t>
-        </is>
-      </c>
-      <c r="J711" s="2" t="inlineStr">
-        <is>
-          <t>17 - GİYİM EŞYALARI PERAKENDE TİCARETİ GRUBU</t>
         </is>
       </c>
     </row>
